--- a/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
+++ b/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OW15"/>
+  <dimension ref="A1:OX15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2492,6 +2492,11 @@
       <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>2023-12</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>2024-01</t>
         </is>
       </c>
     </row>
@@ -3623,6 +3628,7 @@
       <c r="OW2" t="n">
         <v>4.38</v>
       </c>
+      <c r="OX2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4752,6 +4758,7 @@
       <c r="OW3" t="n">
         <v>3.54</v>
       </c>
+      <c r="OX3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5881,6 +5888,7 @@
       <c r="OW4" t="n">
         <v>265.51</v>
       </c>
+      <c r="OX4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6600,6 +6608,7 @@
       <c r="OW5" t="n">
         <v>0</v>
       </c>
+      <c r="OX5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7319,6 +7328,7 @@
       <c r="OW6" t="n">
         <v>0</v>
       </c>
+      <c r="OX6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8038,6 +8048,7 @@
       <c r="OW7" t="n">
         <v>0</v>
       </c>
+      <c r="OX7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9167,6 +9178,7 @@
       <c r="OW8" t="n">
         <v>59.29</v>
       </c>
+      <c r="OX8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -10296,6 +10308,7 @@
       <c r="OW9" t="n">
         <v>6.69</v>
       </c>
+      <c r="OX9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11425,6 +11438,7 @@
       <c r="OW10" t="n">
         <v>0.23</v>
       </c>
+      <c r="OX10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -12554,6 +12568,7 @@
       <c r="OW11" t="n">
         <v>0.47</v>
       </c>
+      <c r="OX11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -13107,6 +13122,7 @@
       <c r="OU12" t="inlineStr"/>
       <c r="OV12" t="inlineStr"/>
       <c r="OW12" t="inlineStr"/>
+      <c r="OX12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -14188,6 +14204,7 @@
       <c r="OW13" t="n">
         <v>15.76</v>
       </c>
+      <c r="OX13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -15317,6 +15334,7 @@
       <c r="OW14" t="n">
         <v>2.52</v>
       </c>
+      <c r="OX14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -16446,6 +16464,7 @@
       <c r="OW15" t="n">
         <v>17.83</v>
       </c>
+      <c r="OX15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
+++ b/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OX15"/>
+  <dimension ref="A1:OY15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2497,6 +2497,11 @@
       <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>2024-01</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>2024-02</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3633,10 @@
       <c r="OW2" t="n">
         <v>4.38</v>
       </c>
-      <c r="OX2" t="inlineStr"/>
+      <c r="OX2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="OY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4758,7 +4766,10 @@
       <c r="OW3" t="n">
         <v>3.54</v>
       </c>
-      <c r="OX3" t="inlineStr"/>
+      <c r="OX3" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="OY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5888,7 +5899,10 @@
       <c r="OW4" t="n">
         <v>265.51</v>
       </c>
-      <c r="OX4" t="inlineStr"/>
+      <c r="OX4" t="n">
+        <v>289.26</v>
+      </c>
+      <c r="OY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6608,7 +6622,10 @@
       <c r="OW5" t="n">
         <v>0</v>
       </c>
-      <c r="OX5" t="inlineStr"/>
+      <c r="OX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7328,7 +7345,10 @@
       <c r="OW6" t="n">
         <v>0</v>
       </c>
-      <c r="OX6" t="inlineStr"/>
+      <c r="OX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8048,7 +8068,10 @@
       <c r="OW7" t="n">
         <v>0</v>
       </c>
-      <c r="OX7" t="inlineStr"/>
+      <c r="OX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9178,7 +9201,10 @@
       <c r="OW8" t="n">
         <v>59.29</v>
       </c>
-      <c r="OX8" t="inlineStr"/>
+      <c r="OX8" t="n">
+        <v>59.24</v>
+      </c>
+      <c r="OY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -10308,7 +10334,10 @@
       <c r="OW9" t="n">
         <v>6.69</v>
       </c>
-      <c r="OX9" t="inlineStr"/>
+      <c r="OX9" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="OY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11438,7 +11467,10 @@
       <c r="OW10" t="n">
         <v>0.23</v>
       </c>
-      <c r="OX10" t="inlineStr"/>
+      <c r="OX10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="OY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -12568,7 +12600,10 @@
       <c r="OW11" t="n">
         <v>0.47</v>
       </c>
-      <c r="OX11" t="inlineStr"/>
+      <c r="OX11" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="OY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -13123,6 +13158,7 @@
       <c r="OV12" t="inlineStr"/>
       <c r="OW12" t="inlineStr"/>
       <c r="OX12" t="inlineStr"/>
+      <c r="OY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -14204,7 +14240,10 @@
       <c r="OW13" t="n">
         <v>15.76</v>
       </c>
-      <c r="OX13" t="inlineStr"/>
+      <c r="OX13" t="n">
+        <v>22.44</v>
+      </c>
+      <c r="OY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -15334,7 +15373,10 @@
       <c r="OW14" t="n">
         <v>2.52</v>
       </c>
-      <c r="OX14" t="inlineStr"/>
+      <c r="OX14" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="OY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -16464,7 +16506,10 @@
       <c r="OW15" t="n">
         <v>17.83</v>
       </c>
-      <c r="OX15" t="inlineStr"/>
+      <c r="OX15" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="OY15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
+++ b/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OY15"/>
+  <dimension ref="A1:OZ15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2502,6 +2502,11 @@
       <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>2024-02</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>2024-03</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3641,10 @@
       <c r="OX2" t="n">
         <v>4.33</v>
       </c>
-      <c r="OY2" t="inlineStr"/>
+      <c r="OY2" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="OZ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4769,7 +4777,10 @@
       <c r="OX3" t="n">
         <v>3.49</v>
       </c>
-      <c r="OY3" t="inlineStr"/>
+      <c r="OY3" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="OZ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5902,7 +5913,10 @@
       <c r="OX4" t="n">
         <v>289.26</v>
       </c>
-      <c r="OY4" t="inlineStr"/>
+      <c r="OY4" t="n">
+        <v>285.01</v>
+      </c>
+      <c r="OZ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6625,7 +6639,10 @@
       <c r="OX5" t="n">
         <v>0</v>
       </c>
-      <c r="OY5" t="inlineStr"/>
+      <c r="OY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7348,7 +7365,10 @@
       <c r="OX6" t="n">
         <v>0</v>
       </c>
-      <c r="OY6" t="inlineStr"/>
+      <c r="OY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8071,7 +8091,10 @@
       <c r="OX7" t="n">
         <v>0</v>
       </c>
-      <c r="OY7" t="inlineStr"/>
+      <c r="OY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="OZ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9204,7 +9227,10 @@
       <c r="OX8" t="n">
         <v>59.24</v>
       </c>
-      <c r="OY8" t="inlineStr"/>
+      <c r="OY8" t="n">
+        <v>58.57</v>
+      </c>
+      <c r="OZ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -10337,7 +10363,10 @@
       <c r="OX9" t="n">
         <v>5.88</v>
       </c>
-      <c r="OY9" t="inlineStr"/>
+      <c r="OY9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="OZ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11470,7 +11499,10 @@
       <c r="OX10" t="n">
         <v>0.15</v>
       </c>
-      <c r="OY10" t="inlineStr"/>
+      <c r="OY10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="OZ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -12603,7 +12635,10 @@
       <c r="OX11" t="n">
         <v>0.42</v>
       </c>
-      <c r="OY11" t="inlineStr"/>
+      <c r="OY11" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="OZ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -13159,6 +13194,7 @@
       <c r="OW12" t="inlineStr"/>
       <c r="OX12" t="inlineStr"/>
       <c r="OY12" t="inlineStr"/>
+      <c r="OZ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -14243,7 +14279,10 @@
       <c r="OX13" t="n">
         <v>22.44</v>
       </c>
-      <c r="OY13" t="inlineStr"/>
+      <c r="OY13" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="OZ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -15376,7 +15415,10 @@
       <c r="OX14" t="n">
         <v>3.08</v>
       </c>
-      <c r="OY14" t="inlineStr"/>
+      <c r="OY14" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="OZ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -16509,7 +16551,10 @@
       <c r="OX15" t="n">
         <v>20.14</v>
       </c>
-      <c r="OY15" t="inlineStr"/>
+      <c r="OY15" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="OZ15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
+++ b/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:OZ15"/>
+  <dimension ref="A1:PA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2507,6 +2507,11 @@
       <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>2024-03</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>2024-04</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3649,10 @@
       <c r="OY2" t="n">
         <v>4.24</v>
       </c>
-      <c r="OZ2" t="inlineStr"/>
+      <c r="OZ2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="PA2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4780,7 +4788,10 @@
       <c r="OY3" t="n">
         <v>3.44</v>
       </c>
-      <c r="OZ3" t="inlineStr"/>
+      <c r="OZ3" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="PA3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5916,7 +5927,10 @@
       <c r="OY4" t="n">
         <v>285.01</v>
       </c>
-      <c r="OZ4" t="inlineStr"/>
+      <c r="OZ4" t="n">
+        <v>311.95</v>
+      </c>
+      <c r="PA4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6642,7 +6656,10 @@
       <c r="OY5" t="n">
         <v>0</v>
       </c>
-      <c r="OZ5" t="inlineStr"/>
+      <c r="OZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7368,7 +7385,10 @@
       <c r="OY6" t="n">
         <v>0</v>
       </c>
-      <c r="OZ6" t="inlineStr"/>
+      <c r="OZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8094,7 +8114,10 @@
       <c r="OY7" t="n">
         <v>0</v>
       </c>
-      <c r="OZ7" t="inlineStr"/>
+      <c r="OZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PA7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9230,7 +9253,10 @@
       <c r="OY8" t="n">
         <v>58.57</v>
       </c>
-      <c r="OZ8" t="inlineStr"/>
+      <c r="OZ8" t="n">
+        <v>59.63</v>
+      </c>
+      <c r="PA8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -10366,7 +10392,10 @@
       <c r="OY9" t="n">
         <v>5.6</v>
       </c>
-      <c r="OZ9" t="inlineStr"/>
+      <c r="OZ9" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="PA9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11502,7 +11531,10 @@
       <c r="OY10" t="n">
         <v>0.17</v>
       </c>
-      <c r="OZ10" t="inlineStr"/>
+      <c r="OZ10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="PA10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -12638,7 +12670,10 @@
       <c r="OY11" t="n">
         <v>0.57</v>
       </c>
-      <c r="OZ11" t="inlineStr"/>
+      <c r="OZ11" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="PA11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -13195,6 +13230,7 @@
       <c r="OX12" t="inlineStr"/>
       <c r="OY12" t="inlineStr"/>
       <c r="OZ12" t="inlineStr"/>
+      <c r="PA12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -14282,7 +14318,10 @@
       <c r="OY13" t="n">
         <v>21.94</v>
       </c>
-      <c r="OZ13" t="inlineStr"/>
+      <c r="OZ13" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="PA13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -15418,7 +15457,10 @@
       <c r="OY14" t="n">
         <v>2.74</v>
       </c>
-      <c r="OZ14" t="inlineStr"/>
+      <c r="OZ14" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="PA14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -16554,7 +16596,10 @@
       <c r="OY15" t="n">
         <v>19.35</v>
       </c>
-      <c r="OZ15" t="inlineStr"/>
+      <c r="OZ15" t="n">
+        <v>20.94</v>
+      </c>
+      <c r="PA15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
+++ b/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PA15"/>
+  <dimension ref="A1:PE15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2512,6 +2512,26 @@
       <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>2024-04</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>2024-05</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>2024-06</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08</t>
         </is>
       </c>
     </row>
@@ -3652,7 +3672,19 @@
       <c r="OZ2" t="n">
         <v>4.2</v>
       </c>
-      <c r="PA2" t="inlineStr"/>
+      <c r="PA2" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="PE2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4791,7 +4823,19 @@
       <c r="OZ3" t="n">
         <v>3.41</v>
       </c>
-      <c r="PA3" t="inlineStr"/>
+      <c r="PA3" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="PB3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="PC3" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="PD3" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="PE3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5930,7 +5974,19 @@
       <c r="OZ4" t="n">
         <v>311.95</v>
       </c>
-      <c r="PA4" t="inlineStr"/>
+      <c r="PA4" t="n">
+        <v>308.54</v>
+      </c>
+      <c r="PB4" t="n">
+        <v>315.03</v>
+      </c>
+      <c r="PC4" t="n">
+        <v>284</v>
+      </c>
+      <c r="PD4" t="n">
+        <v>275.75</v>
+      </c>
+      <c r="PE4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6659,7 +6715,19 @@
       <c r="OZ5" t="n">
         <v>0</v>
       </c>
-      <c r="PA5" t="inlineStr"/>
+      <c r="PA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7388,7 +7456,19 @@
       <c r="OZ6" t="n">
         <v>0</v>
       </c>
-      <c r="PA6" t="inlineStr"/>
+      <c r="PA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8117,7 +8197,19 @@
       <c r="OZ7" t="n">
         <v>0</v>
       </c>
-      <c r="PA7" t="inlineStr"/>
+      <c r="PA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PE7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9256,7 +9348,19 @@
       <c r="OZ8" t="n">
         <v>59.63</v>
       </c>
-      <c r="PA8" t="inlineStr"/>
+      <c r="PA8" t="n">
+        <v>60.93</v>
+      </c>
+      <c r="PB8" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="PC8" t="n">
+        <v>52.31</v>
+      </c>
+      <c r="PD8" t="n">
+        <v>52.87</v>
+      </c>
+      <c r="PE8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -10395,7 +10499,19 @@
       <c r="OZ9" t="n">
         <v>6.46</v>
       </c>
-      <c r="PA9" t="inlineStr"/>
+      <c r="PA9" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="PB9" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="PC9" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="PD9" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="PE9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11534,7 +11650,19 @@
       <c r="OZ10" t="n">
         <v>0.2</v>
       </c>
-      <c r="PA10" t="inlineStr"/>
+      <c r="PA10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="PB10" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="PC10" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="PD10" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="PE10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -12673,7 +12801,19 @@
       <c r="OZ11" t="n">
         <v>0.43</v>
       </c>
-      <c r="PA11" t="inlineStr"/>
+      <c r="PA11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="PB11" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="PC11" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="PD11" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="PE11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -13231,6 +13371,10 @@
       <c r="OY12" t="inlineStr"/>
       <c r="OZ12" t="inlineStr"/>
       <c r="PA12" t="inlineStr"/>
+      <c r="PB12" t="inlineStr"/>
+      <c r="PC12" t="inlineStr"/>
+      <c r="PD12" t="inlineStr"/>
+      <c r="PE12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -14321,7 +14465,19 @@
       <c r="OZ13" t="n">
         <v>23.13</v>
       </c>
-      <c r="PA13" t="inlineStr"/>
+      <c r="PA13" t="n">
+        <v>23.89</v>
+      </c>
+      <c r="PB13" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="PC13" t="n">
+        <v>22.51</v>
+      </c>
+      <c r="PD13" t="n">
+        <v>27.53</v>
+      </c>
+      <c r="PE13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -15460,7 +15616,19 @@
       <c r="OZ14" t="n">
         <v>2.73</v>
       </c>
-      <c r="PA14" t="inlineStr"/>
+      <c r="PA14" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="PB14" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="PC14" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="PD14" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="PE14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -16599,7 +16767,19 @@
       <c r="OZ15" t="n">
         <v>20.94</v>
       </c>
-      <c r="PA15" t="inlineStr"/>
+      <c r="PA15" t="n">
+        <v>21.16</v>
+      </c>
+      <c r="PB15" t="n">
+        <v>21.38</v>
+      </c>
+      <c r="PC15" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="PD15" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="PE15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
+++ b/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
@@ -3684,7 +3684,9 @@
       <c r="PD2" t="n">
         <v>4.02</v>
       </c>
-      <c r="PE2" t="inlineStr"/>
+      <c r="PE2" t="n">
+        <v>4.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4835,7 +4837,9 @@
       <c r="PD3" t="n">
         <v>3.34</v>
       </c>
-      <c r="PE3" t="inlineStr"/>
+      <c r="PE3" t="n">
+        <v>3.36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5986,7 +5990,9 @@
       <c r="PD4" t="n">
         <v>275.75</v>
       </c>
-      <c r="PE4" t="inlineStr"/>
+      <c r="PE4" t="n">
+        <v>265.48</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6727,7 +6733,9 @@
       <c r="PD5" t="n">
         <v>0</v>
       </c>
-      <c r="PE5" t="inlineStr"/>
+      <c r="PE5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7468,7 +7476,9 @@
       <c r="PD6" t="n">
         <v>0</v>
       </c>
-      <c r="PE6" t="inlineStr"/>
+      <c r="PE6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8209,7 +8219,9 @@
       <c r="PD7" t="n">
         <v>0</v>
       </c>
-      <c r="PE7" t="inlineStr"/>
+      <c r="PE7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9360,7 +9372,9 @@
       <c r="PD8" t="n">
         <v>52.87</v>
       </c>
-      <c r="PE8" t="inlineStr"/>
+      <c r="PE8" t="n">
+        <v>51.31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -10511,7 +10525,9 @@
       <c r="PD9" t="n">
         <v>6.26</v>
       </c>
-      <c r="PE9" t="inlineStr"/>
+      <c r="PE9" t="n">
+        <v>5.82</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11662,7 +11678,9 @@
       <c r="PD10" t="n">
         <v>0.22</v>
       </c>
-      <c r="PE10" t="inlineStr"/>
+      <c r="PE10" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -12813,7 +12831,9 @@
       <c r="PD11" t="n">
         <v>0.44</v>
       </c>
-      <c r="PE11" t="inlineStr"/>
+      <c r="PE11" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -14477,7 +14497,9 @@
       <c r="PD13" t="n">
         <v>27.53</v>
       </c>
-      <c r="PE13" t="inlineStr"/>
+      <c r="PE13" t="n">
+        <v>25.87</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -15628,7 +15650,9 @@
       <c r="PD14" t="n">
         <v>2.41</v>
       </c>
-      <c r="PE14" t="inlineStr"/>
+      <c r="PE14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -16779,7 +16803,9 @@
       <c r="PD15" t="n">
         <v>19.6</v>
       </c>
-      <c r="PE15" t="inlineStr"/>
+      <c r="PE15" t="n">
+        <v>18.12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
+++ b/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PE15"/>
+  <dimension ref="A1:PH15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,6 +2532,21 @@
       <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>2024-08</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -3687,6 +3702,13 @@
       <c r="PE2" t="n">
         <v>4.01</v>
       </c>
+      <c r="PF2" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="PH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4840,6 +4862,13 @@
       <c r="PE3" t="n">
         <v>3.36</v>
       </c>
+      <c r="PF3" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="PG3" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="PH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5993,6 +6022,13 @@
       <c r="PE4" t="n">
         <v>265.48</v>
       </c>
+      <c r="PF4" t="n">
+        <v>252.97</v>
+      </c>
+      <c r="PG4" t="n">
+        <v>264.02</v>
+      </c>
+      <c r="PH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6736,6 +6772,13 @@
       <c r="PE5" t="n">
         <v>0</v>
       </c>
+      <c r="PF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7479,6 +7522,13 @@
       <c r="PE6" t="n">
         <v>0</v>
       </c>
+      <c r="PF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8222,6 +8272,13 @@
       <c r="PE7" t="n">
         <v>0</v>
       </c>
+      <c r="PF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9375,6 +9432,13 @@
       <c r="PE8" t="n">
         <v>51.31</v>
       </c>
+      <c r="PF8" t="n">
+        <v>50.68</v>
+      </c>
+      <c r="PG8" t="n">
+        <v>58.15</v>
+      </c>
+      <c r="PH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -10528,6 +10592,13 @@
       <c r="PE9" t="n">
         <v>5.82</v>
       </c>
+      <c r="PF9" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="PG9" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="PH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11681,6 +11752,13 @@
       <c r="PE10" t="n">
         <v>0.33</v>
       </c>
+      <c r="PF10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="PG10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="PH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -12834,6 +12912,13 @@
       <c r="PE11" t="n">
         <v>0.47</v>
       </c>
+      <c r="PF11" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="PG11" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="PH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -13395,6 +13480,9 @@
       <c r="PC12" t="inlineStr"/>
       <c r="PD12" t="inlineStr"/>
       <c r="PE12" t="inlineStr"/>
+      <c r="PF12" t="inlineStr"/>
+      <c r="PG12" t="inlineStr"/>
+      <c r="PH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -14500,6 +14588,13 @@
       <c r="PE13" t="n">
         <v>25.87</v>
       </c>
+      <c r="PF13" t="n">
+        <v>23.48</v>
+      </c>
+      <c r="PG13" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="PH13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -15653,6 +15748,13 @@
       <c r="PE14" t="n">
         <v>2</v>
       </c>
+      <c r="PF14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="PG14" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="PH14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -16806,6 +16908,13 @@
       <c r="PE15" t="n">
         <v>18.12</v>
       </c>
+      <c r="PF15" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="PG15" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="PH15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
+++ b/data/data_raw/eurostat/AT_milk_apro_mk_colm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:PH15"/>
+  <dimension ref="A1:PI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2547,6 +2547,11 @@
       <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>2024-11</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>2024-12</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3713,10 @@
       <c r="PG2" t="n">
         <v>4.25</v>
       </c>
-      <c r="PH2" t="inlineStr"/>
+      <c r="PH2" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="PI2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4868,7 +4876,10 @@
       <c r="PG3" t="n">
         <v>3.53</v>
       </c>
-      <c r="PH3" t="inlineStr"/>
+      <c r="PH3" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="PI3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -6028,7 +6039,10 @@
       <c r="PG4" t="n">
         <v>264.02</v>
       </c>
-      <c r="PH4" t="inlineStr"/>
+      <c r="PH4" t="n">
+        <v>254.77</v>
+      </c>
+      <c r="PI4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6778,7 +6792,10 @@
       <c r="PG5" t="n">
         <v>0</v>
       </c>
-      <c r="PH5" t="inlineStr"/>
+      <c r="PH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7528,7 +7545,10 @@
       <c r="PG6" t="n">
         <v>0</v>
       </c>
-      <c r="PH6" t="inlineStr"/>
+      <c r="PH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8278,7 +8298,10 @@
       <c r="PG7" t="n">
         <v>0</v>
       </c>
-      <c r="PH7" t="inlineStr"/>
+      <c r="PH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="PI7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9433,12 +9456,15 @@
         <v>51.31</v>
       </c>
       <c r="PF8" t="n">
-        <v>50.68</v>
+        <v>52.74</v>
       </c>
       <c r="PG8" t="n">
         <v>58.15</v>
       </c>
-      <c r="PH8" t="inlineStr"/>
+      <c r="PH8" t="n">
+        <v>51.48</v>
+      </c>
+      <c r="PI8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -10593,12 +10619,15 @@
         <v>5.82</v>
       </c>
       <c r="PF9" t="n">
-        <v>5.39</v>
+        <v>5.62</v>
       </c>
       <c r="PG9" t="n">
         <v>6.23</v>
       </c>
-      <c r="PH9" t="inlineStr"/>
+      <c r="PH9" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="PI9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -11758,7 +11787,10 @@
       <c r="PG10" t="n">
         <v>0.42</v>
       </c>
-      <c r="PH10" t="inlineStr"/>
+      <c r="PH10" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="PI10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -12913,12 +12945,15 @@
         <v>0.47</v>
       </c>
       <c r="PF11" t="n">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="PG11" t="n">
         <v>0.37</v>
       </c>
-      <c r="PH11" t="inlineStr"/>
+      <c r="PH11" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="PI11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -13483,6 +13518,7 @@
       <c r="PF12" t="inlineStr"/>
       <c r="PG12" t="inlineStr"/>
       <c r="PH12" t="inlineStr"/>
+      <c r="PI12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -14589,12 +14625,15 @@
         <v>25.87</v>
       </c>
       <c r="PF13" t="n">
-        <v>23.48</v>
+        <v>24.86</v>
       </c>
       <c r="PG13" t="n">
         <v>25.02</v>
       </c>
-      <c r="PH13" t="inlineStr"/>
+      <c r="PH13" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="PI13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -15749,12 +15788,15 @@
         <v>2</v>
       </c>
       <c r="PF14" t="n">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="PG14" t="n">
         <v>2.69</v>
       </c>
-      <c r="PH14" t="inlineStr"/>
+      <c r="PH14" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="PI14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -16909,12 +16951,15 @@
         <v>18.12</v>
       </c>
       <c r="PF15" t="n">
-        <v>17.15</v>
+        <v>17.54</v>
       </c>
       <c r="PG15" t="n">
         <v>19.63</v>
       </c>
-      <c r="PH15" t="inlineStr"/>
+      <c r="PH15" t="n">
+        <v>17.61</v>
+      </c>
+      <c r="PI15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
